--- a/结果/KNN分类/标准差/KNN_BE_biaozhuncha.xlsx
+++ b/结果/KNN分类/标准差/KNN_BE_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\KNN分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C261878-899E-4971-8D90-18BA8942E9DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC21687-ADA5-4D9D-AF0B-CB4F0AFC2B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8244" yWindow="1212" windowWidth="19668" windowHeight="11148" firstSheet="2" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="BE_biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="BE_biaozhuncha_d3" sheetId="4" r:id="rId4"/>
     <sheet name="BE_biaozhuncha_d4" sheetId="5" r:id="rId5"/>
     <sheet name="BE_biaozhuncha_d5" sheetId="6" r:id="rId6"/>
+    <sheet name="BE_bzc_multi_attri" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1374,7 +1375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A562E27-B45C-46E2-9464-03AA66576402}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
@@ -1560,4 +1561,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD1FD9E-A275-4781-831F-CC9FCF602E9F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/结果/KNN分类/标准差/KNN_BE_biaozhuncha.xlsx
+++ b/结果/KNN分类/标准差/KNN_BE_biaozhuncha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\KNN分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC21687-ADA5-4D9D-AF0B-CB4F0AFC2B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F51C648-6924-4437-9A6F-32178371AABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="8436" yWindow="2400" windowWidth="19668" windowHeight="9792" tabRatio="751" firstSheet="2" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="BE_biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1565,15 +1577,193 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD1FD9E-A275-4781-831F-CC9FCF602E9F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>98.75</v>
+      </c>
+      <c r="B2">
+        <v>97.647099999999995</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>98.75</v>
+      </c>
+      <c r="B4">
+        <v>96.923100000000005</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>98.75</v>
+      </c>
+      <c r="B8">
+        <v>97.701099999999997</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>98.125</v>
+      </c>
+      <c r="B15">
+        <v>96.842100000000002</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>99.375</v>
+      </c>
+      <c r="B17">
+        <v>98.666700000000006</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>98.75</v>
+      </c>
+      <c r="B19">
+        <v>97.297300000000007</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>99.375</v>
+      </c>
+      <c r="B23">
+        <v>98.7179</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>99.375</v>
+      </c>
+      <c r="B28">
+        <v>98.684200000000004</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>98.75</v>
+      </c>
+      <c r="B30">
+        <v>97.468400000000003</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>100</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>99.375</v>
+      </c>
+      <c r="B34">
+        <v>98.701300000000003</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>99.375</v>
+      </c>
+      <c r="B36">
+        <v>98.75</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/结果/KNN分类/标准差/KNN_BE_biaozhuncha.xlsx
+++ b/结果/KNN分类/标准差/KNN_BE_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\KNN分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F51C648-6924-4437-9A6F-32178371AABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81570AC6-386E-4471-97F9-F49588DDC8F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8436" yWindow="2400" windowWidth="19668" windowHeight="9792" tabRatio="751" firstSheet="2" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="13632" yWindow="48" windowWidth="13620" windowHeight="12360" tabRatio="751" firstSheet="4" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="BE_biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +78,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -106,8 +115,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -424,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4741E87B-C3D3-4C4C-BF4E-36BCF345D7CA}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -606,6 +618,20 @@
       </c>
       <c r="C36">
         <v>98.823499999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>96.083333333333329</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>94.94713999999999</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>97.331400000000002</v>
       </c>
     </row>
   </sheetData>
@@ -617,10 +643,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4837C2C3-1B84-4C22-B8D3-9C9425AD3B2C}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -799,6 +825,20 @@
       </c>
       <c r="C36">
         <v>84.415599999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>81.041666666666671</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>82.476540000000014</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>79.653480000000002</v>
       </c>
     </row>
   </sheetData>
@@ -809,10 +849,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD53ACA-1FED-43C4-8F2D-4401038A9FD8}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -991,6 +1031,20 @@
       </c>
       <c r="C36">
         <v>97.752799999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>90.333333333333329</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>84.26634</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>96.422266666666673</v>
       </c>
     </row>
   </sheetData>
@@ -1001,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898333BC-83D1-4F92-82BD-857285C19C04}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1183,6 +1237,20 @@
       </c>
       <c r="C36">
         <v>89.855099999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>82.791666666666671</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>78.443266666666673</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>87.028393333333327</v>
       </c>
     </row>
   </sheetData>
@@ -1193,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E3CE9D-1C90-42BD-9092-D459D056071D}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1375,6 +1443,20 @@
       </c>
       <c r="C36">
         <v>97.402600000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>91</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>89.398753333333346</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>92.655493333333325</v>
       </c>
     </row>
   </sheetData>
@@ -1385,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A562E27-B45C-46E2-9464-03AA66576402}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1567,6 +1649,20 @@
       </c>
       <c r="C36">
         <v>98.7179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>99.541666666666671</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>99.497339999999994</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>99.586160000000007</v>
       </c>
     </row>
   </sheetData>
@@ -1577,10 +1673,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD1FD9E-A275-4781-831F-CC9FCF602E9F}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1761,6 +1857,20 @@
         <v>100</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>99.25</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>98.493279999999984</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
